--- a/Marketing/vt.roomme.xlsx
+++ b/Marketing/vt.roomme.xlsx
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">

--- a/Marketing/vt.roomme.xlsx
+++ b/Marketing/vt.roomme.xlsx
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">

--- a/Marketing/vt.roomme.xlsx
+++ b/Marketing/vt.roomme.xlsx
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="B402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="B411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="B414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="B420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="B424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="B429" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="B430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="B431" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="B432" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B435" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="B436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B438" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="B440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="B441" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="B442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="B443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B444" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B445" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="B446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="B447" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="B449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="B450" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B451" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="B452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="B453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="B455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="B457" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="B458" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="B459" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="B460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="B461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="B462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="B463" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B464" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="B465" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="B466" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="B467" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="B468" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B469" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="B470" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="B471" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="B472" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="B473" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="B474" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="B475" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="B476" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="B477" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="B478" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="B479" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="B480" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="B481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B482" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="B483" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B484" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="B485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="B486" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="B487" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="B488" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="B489" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="B490" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="B491" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="B492" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="B493" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="B494" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="B495" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="B496" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="B497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B498" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="B499" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="B500" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="B501" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="B502" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B503" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="B504" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="B505" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="B506" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="B507" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="B508" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="B509" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="B510" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="B511" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="B512" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="B513" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="B514" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="B515" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="B516" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="B517" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="B518" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="B519" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B520" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="B521" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="B522" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="B523" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="B524" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="B525" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="B526" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -5702,7 +5702,7 @@
         </is>
       </c>
       <c r="B527" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="B528" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="B529" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="B530" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="B531" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="B532" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="B533" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="B534" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="B535" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="B536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="B537" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="B538" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="B539" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="B540" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="B541" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="B542" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="B543" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="B544" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="B545" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="B546" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="B547" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="B548" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="B549" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="B550" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -5942,7 +5942,7 @@
         </is>
       </c>
       <c r="B551" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="B552" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="B553" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="B554" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="B555" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="B556" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="B557" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="B558" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="B559" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="B560" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B561" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">

--- a/Marketing/vt.roomme.xlsx
+++ b/Marketing/vt.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B337"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mary15am_aziz</t>
+          <t>gupta_tanul</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2drewb</t>
+          <t>ali_cow1</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>michellepastranaa</t>
+          <t>_loganterry</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>melissadavidson9004</t>
+          <t>nahom_nm1</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>naomigedamuu</t>
+          <t>nate.s25</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>grace.atayi</t>
+          <t>the_andrea_lee</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sithpotato</t>
+          <t>brianduck7</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>chris_calderon_2</t>
+          <t>mayukhii</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>samantha_kimenhour</t>
+          <t>gabbo.carp</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ellieeskicioglu</t>
+          <t>aaronwumpini24_backup</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>avamamienski</t>
+          <t>anwithasanivarapu</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>patrick_r05</t>
+          <t>dont.be.an.eddie.ot</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>emily.pinegar5</t>
+          <t>squashme23223</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>karthik___srinivasan</t>
+          <t>_ashley.elizibeth_</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>gupta_tanul</t>
+          <t>austinselliss</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>f.kennedy05</t>
+          <t>fukktete</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sclever7</t>
+          <t>rayuthh</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>owenshumate1</t>
+          <t>jason.hodge78</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>israt_tahosena</t>
+          <t>manavppatell</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>arianalhill</t>
+          <t>ryantravers24</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,1007 +648,1007 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>_keira_mcmurry_</t>
+          <t>lilli.harding</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>shlakyy</t>
+          <t>jac0b5269</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>knox_dendy</t>
+          <t>estudiojuridicobasile</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>s4mn0rth</t>
+          <t>sam.shilly</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>doraforreal77</t>
+          <t>p.rooney25</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>zennie.bby</t>
+          <t>dkandel18</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ethanvonnida</t>
+          <t>ward_line76</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>brenna.egann</t>
+          <t>riaz_ahsann</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sophia.gianinno</t>
+          <t>misskd4</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>tomoyoisumi_rukahonda_japuss10</t>
+          <t>kwolfe.05</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>abby_jeanw</t>
+          <t>antt.roma_</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>noahknauff</t>
+          <t>cullenmcc4</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>brooke_johnson4805</t>
+          <t>naomigedamuu</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>jack.vicari0</t>
+          <t>abby_jeanw</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>acconut_lola.20</t>
+          <t>thartigan</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>juliarshearer</t>
+          <t>shruthika.s.05</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>305genie</t>
+          <t>aliyahvbrown</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>emersonbeck3</t>
+          <t>sasha_sachinskiy</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>elianammichael</t>
+          <t>meat_balls_slap</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>racheliz1111</t>
+          <t>kostasaari</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>holyn.macleod</t>
+          <t>donnasateri</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>gcolley27</t>
+          <t>gavin.m.brown</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>gilliandoherty05</t>
+          <t>_tyler.smith_6865</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>luke.murtaugh44</t>
+          <t>eavan.driscoll</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>camillev2</t>
+          <t>lmbzjs</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4mishawa</t>
+          <t>_aye.rose_</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>jababiee</t>
+          <t>_marcuszachariah_</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>_parishahh_</t>
+          <t>sofy.gonzalez_05</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>gav_oleary</t>
+          <t>_as651</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>emilio.beh</t>
+          <t>ryan.jeronimus</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>z_frampton</t>
+          <t>jalyn._white</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>cibelmenendezz</t>
+          <t>colinok26</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>oliviakleftwich</t>
+          <t>lauren_mcclellan24</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sydney.scannell</t>
+          <t>timsiekierka</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0luwatoni.i</t>
+          <t>kayin.b_</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mere.dith.g.23</t>
+          <t>israt_tahosena</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>gwalker76</t>
+          <t>ethanvonnida</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>made_x_us</t>
+          <t>addiegkarluk</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>fiaremondino</t>
+          <t>pauliferetti</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>taybird__</t>
+          <t>kjinva</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>landchovies</t>
+          <t>theholloway04</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>corennmay</t>
+          <t>distressor7</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>tatumevans45</t>
+          <t>ky1iezhou</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>kennedy_trace05</t>
+          <t>neo_jing</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>brittany.linares</t>
+          <t>sandmanpestcontrol</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>wizardfacelol</t>
+          <t>gmucommitments</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>angela_tiju</t>
+          <t>neil_vermin</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ezabella.g</t>
+          <t>0luwatoni.i</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>izzyb_s4</t>
+          <t>leo_._exe</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ishani.ramesh</t>
+          <t>arnavkumar47</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>jayden338174</t>
+          <t>archer_vermont23</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>gregnel11</t>
+          <t>evelyn_teske_</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>colinok26</t>
+          <t>parth_mittal21</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>_elise.bianca_</t>
+          <t>febromfman</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t.hall52</t>
+          <t>zaccharie.ouzilou</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>nicmuratore</t>
+          <t>bradysicotte</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>rigdon.sean</t>
+          <t>gcashman_</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>madibv_</t>
+          <t>victoriavb1</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>tommy_ayers21</t>
+          <t>owenhart247</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>larabakerrr</t>
+          <t>gwalker76</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>dawitsheckler</t>
+          <t>sakura_ash</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>j.davis22</t>
+          <t>daksh_shandilya</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>max_mellick</t>
+          <t>rosies_roseas</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>tyler.hordych</t>
+          <t>ha.rini_k</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>_capo04_</t>
+          <t>atlasaurelius23</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>lmbzjs</t>
+          <t>sampruitt_maybe</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>seena.sanil</t>
+          <t>jonathan.adms</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sydney_vest04</t>
+          <t>wilson_francis11</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>dylan.decambre</t>
+          <t>ana_lichtenstein</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>pauliferetti</t>
+          <t>chris_calderon_2</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>jalyn._white</t>
+          <t>avamariaent</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>a_levy12</t>
+          <t>taylormcgg</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>laneydennisss</t>
+          <t>kbanes20</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>liz.webbert</t>
+          <t>sean.stu213</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>beckhoffman9722</t>
+          <t>kate_rosep1</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>archer_vermont23</t>
+          <t>elizabethbfowler</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>anastasiasimooo</t>
+          <t>mary15am_aziz</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>sarahhyoung23</t>
+          <t>brenna.egann</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>mar_mun292</t>
+          <t>sarahhyoung23</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>gracynr5</t>
+          <t>joaquin.prera</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>mahishamss</t>
+          <t>nmcgill19</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ryan_kess15</t>
+          <t>pre__yea</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>jac0b5269</t>
+          <t>mack.l0</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>tanyshaaa_01</t>
+          <t>charannarra01</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>austinselliss</t>
+          <t>_nataliapolo</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>julliie05</t>
+          <t>sarmientorenee10</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>mpatras.05</t>
+          <t>305genie</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>emma.geilmann</t>
+          <t>kennedy_trace05</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>bri_reid42</t>
+          <t>maddieswanson23</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>maureen_m3</t>
+          <t>andre.keyser1</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>william_tinnemeyer</t>
+          <t>emersonbeck3</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>jmdyer16</t>
+          <t>allyson.lounsbury</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>atlasaurelius23</t>
+          <t>justah_bro_chillin</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>shru_th.y</t>
+          <t>2drewb</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>solilium.mili</t>
+          <t>sophiajohnstonnn</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>jonathan.adms</t>
+          <t>bristumbaugh</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>jenna.gadd.22</t>
+          <t>cibelmenendezz</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>jaylene.chute</t>
+          <t>ethnlk</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>miheerdharwadkar</t>
+          <t>youngcheolchoe</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>kartikch18</t>
+          <t>hazeljdohse</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>meat_balls_slap</t>
+          <t>_darassss_</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>trisha0307</t>
+          <t>alex.azpu</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>distressor7</t>
+          <t>acconut_lola.20</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>james_ivanov3</t>
+          <t>ceorr_0611</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>aayush.narang10</t>
+          <t>juliaeffenberger</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>angeline.saari</t>
+          <t>wyatt_tinker57</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>sofia.cropper</t>
+          <t>anirudh.chinta</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>shravan_s1005</t>
+          <t>raeganturnbach</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>jeffrey._hubler</t>
+          <t>bryan.smith04</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>peyfarr</t>
+          <t>avamamienski</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>_brookewashington</t>
+          <t>ethan.garlock</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>wyatt_tinker57</t>
+          <t>elianammichael</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>mack.l0</t>
+          <t>_keira_mcmurry_</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>emily.quinn4</t>
+          <t>zach.runyan</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>sanat.kas03</t>
+          <t>dylan.decambre</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>_abbymurrayy</t>
+          <t>goals4life11</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>maddieswanson23</t>
+          <t>kennedyoldss</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>daviddamkoehler</t>
+          <t>peyfarr</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>vt_greekcru</t>
+          <t>ryanburke.14</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ronnie.holguin</t>
+          <t>jenrx</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>anthonygiampietro5</t>
+          <t>maxbrooks__</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>charlieweinberg1</t>
+          <t>zsazsaferrell</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ak.martz</t>
+          <t>kb.sackey</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>apham_1</t>
+          <t>sophia.donofrio</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>sjn_0619</t>
+          <t>devtanwar902</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ddavid.chen1</t>
+          <t>_samanthasherwood4</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>devtanwar902</t>
+          <t>mariag.760</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>gcashman_</t>
+          <t>_anagraham_</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>hector_franco77</t>
+          <t>quetonto</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>mylessavoth</t>
+          <t>dvmb.7</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>chloe.ameli.a</t>
+          <t>kylieseckinger</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>eavan.driscoll</t>
+          <t>shlakyy</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>trug711</t>
+          <t>sydney.scannell</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>brenna_bevins</t>
+          <t>ethan_mackay22</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>jakehendel2</t>
+          <t>michael_thegolfer</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1.fly.guy</t>
+          <t>sanyasewani</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>cheyenne.davidsonnn</t>
+          <t>apham_1</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>thartigan</t>
+          <t>mahishamss</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>jimmy.mullarney</t>
+          <t>daviddamkoehler</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>justah_bro_chillin</t>
+          <t>brian_pariseau</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>sarah.brooke</t>
+          <t>avaagarrison</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>leilasarkarzadeh</t>
+          <t>jeffrey._hubler</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>kimgfalwell</t>
+          <t>connorhamburger</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>avabirchfield</t>
+          <t>halpern.lindsey</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>emmygeddes</t>
+          <t>fix.it.felix7</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>amber89dawn</t>
+          <t>andrew_wulff_23</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>michael_blank_anthony_</t>
+          <t>mucmuontutu.myanmartiktokstars</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>antt.roma_</t>
+          <t>owenshumate1</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>mayukhii</t>
+          <t>brenna_bevins</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>sadiedillard__</t>
+          <t>jenisita70</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>rayuthh</t>
+          <t>ddavid.chen1</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ethan.b26</t>
+          <t>vt_greekcru</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>caaroliinegarcia</t>
+          <t>izzyb_s4</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>jackcadwell512</t>
+          <t>owencook50</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>livjenkins11</t>
+          <t>lukederitis</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>joiblake._</t>
+          <t>sanat.kas03</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>alettathompson</t>
+          <t>gigi_ziel</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ana_lichtenstein</t>
+          <t>liz.webbert</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>jamesbracken_</t>
+          <t>angela_tiju</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>sampruitt_maybe</t>
+          <t>anitaj_05</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>dvmb.7</t>
+          <t>peyton.emmel</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>siddhesh.bapat</t>
+          <t>virxjc</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>maggie_dommisse</t>
+          <t>zachtorres__</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>hunter_rock842</t>
+          <t>arrishmarri</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>jahleeljackson</t>
+          <t>siyi_0228</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>zsazsaferrell</t>
+          <t>zennie.bby</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>sarah_12arts</t>
+          <t>jeansebastianv</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>fukktete</t>
+          <t>mirka_ribera</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>michael_thegolfer</t>
+          <t>cadyshenk</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>m.a.k.a.i.l.a</t>
+          <t>joshua_fetus</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>lukederitis</t>
+          <t>juliapallen72</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>chris5davis</t>
+          <t>tomoyoisumi_rukahonda_japuss10</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>maz_sheephands</t>
+          <t>amber89dawn</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>madisonnn.daniel</t>
+          <t>leah.tillman05</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>kyleeccarroll</t>
+          <t>angeline.saari</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>npbasic</t>
+          <t>all.isonmspam</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>char.dowd</t>
+          <t>jack.vicari0</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>addiegkarluk</t>
+          <t>_jason.law</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>katpomrenke</t>
+          <t>gregnel11</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>nathan_wyatt_16</t>
+          <t>katie_creswick</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>connorhamburger</t>
+          <t>leyaarmstrong</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>neo_jing</t>
+          <t>nate.collinss</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>kirap783</t>
+          <t>maz_sheephands</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>sathvikob</t>
+          <t>maureen_m3</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>alex.azpu</t>
+          <t>misskeyonnaletrice</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>alexisschavarro</t>
+          <t>eli_rowland18</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>missingcw</t>
+          <t>turner.saunders.1</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>josephine.scogna</t>
+          <t>sithpotato</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>amberrosnick</t>
+          <t>patrick_r05</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ceorr_0611</t>
+          <t>nevin.odowd</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>maximos.griffiths</t>
+          <t>kimgfalwell</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>sweta.dass</t>
+          <t>hudson_rothschild</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>p.rooney25</t>
+          <t>adriannaangell</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>allison_827</t>
+          <t>skylarrperryy</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>lilli.harding</t>
+          <t>thejasminevarma</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>rijul._.tandon</t>
+          <t>marissa._bentley</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>lauren_mcclellan24</t>
+          <t>dawitsheckler</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>thebakarmos</t>
+          <t>monaa.li_sa</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>taylormcgg</t>
+          <t>nathan_wyatt_16</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>g.lewiis</t>
+          <t>hhberger05</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>uhhh_ciara_</t>
+          <t>sam.w_0331</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>monaa.li_sa</t>
+          <t>_kyle_z_</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>_luke_skinner_</t>
+          <t>emoryftaylor</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>gavin.m.brown</t>
+          <t>dilloncaswell</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ian.adcock.howeth</t>
+          <t>abby_lessy</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>dhruv.sharma0505</t>
+          <t>knox_dendy</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>subeen_05</t>
+          <t>tommy_ayers21</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ramey_bower</t>
+          <t>bree.112440_</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>maxbolton23</t>
+          <t>griffinthehatcher</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>youngcheolchoe</t>
+          <t>laneydennisss</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>eliseemarsh</t>
+          <t>chloe.ameli.a</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>declan.white1</t>
+          <t>maresa.ak</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>kwolfe.05</t>
+          <t>jmdyer16</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>_loganterry</t>
+          <t>jahleeljackson</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>jacob_wojo05</t>
+          <t>rigdon.sean</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ema__allen</t>
+          <t>david_hill05</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>jeansebastianv</t>
+          <t>mom2brownings</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>leah.tillman05</t>
+          <t>nikhikhas</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>joaquin.prera</t>
+          <t>_capo04_</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>madeline.aa.white</t>
+          <t>mucmuontutu_myanmartiktokstars</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>_kristin.ruule</t>
+          <t>zidow_keira</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>_avagordon</t>
+          <t>mike_rod_34</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>hudson_rothschild</t>
+          <t>sawyer.cummings</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>fix.it.felix7</t>
+          <t>chloekortt</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>charannarra01</t>
+          <t>larabakerrr</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>caelkinney</t>
+          <t>10brettfarm</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ryantravers24</t>
+          <t>t.hall52</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>hannahshortridge</t>
+          <t>emma.geilmann</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>wyliekd</t>
+          <t>jimmy.mullarney</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>_camila.franco</t>
+          <t>melwitit</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>_jason.law</t>
+          <t>trinity.jenkins1</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>freshfrosh_</t>
+          <t>michael__conlon</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>_ava_mozahebi_</t>
+          <t>a_levy12</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>emmagrupce</t>
+          <t>darrenchi_</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>mariano_alfaro_vargas</t>
+          <t>brittany.linares</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>john.kelly3</t>
+          <t>wh302035</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>therealariyannaa</t>
+          <t>mimikronisch</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>owencook50</t>
+          <t>w_slm_</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>gigi_ziel</t>
+          <t>elioth813</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>alexisheuerr</t>
+          <t>adam.oyster</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>evelyn_teske_</t>
+          <t>eliseemarsh</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ameliao_10_</t>
+          <t>ellieeskicioglu</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>connor.peck.5</t>
+          <t>jenna.gadd.22</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>anitaj_05</t>
+          <t>caelkinney</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>jacksonhuish1</t>
+          <t>ishani.ramesh</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>_samanthasherwood4</t>
+          <t>kirap783</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>alexandraholmesr</t>
+          <t>k_hall9904</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>kjinva</t>
+          <t>rebecca_grace2003</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>sky_sky_guy_guy</t>
+          <t>marykaye17</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>_as651</t>
+          <t>therealariyannaa</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>savannavaleroa</t>
+          <t>tyler.hordych</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>gavin._.p</t>
+          <t>luke.murtaugh44</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>tl_gobell</t>
+          <t>jayden338174</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>lily_ehler</t>
+          <t>_tylergordon._</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>elioth813</t>
+          <t>dhruv.sharma0505</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>emoryftaylor</t>
+          <t>caseybtinker</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>kennedyoldss</t>
+          <t>corinasawyerss</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>sam.w_0331</t>
+          <t>trisha0307</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>darbyclose</t>
+          <t>oliviakleftwich</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>febromfman</t>
+          <t>made_x_us</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>kate_rosep1</t>
+          <t>julietpasierb</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>quetonto</t>
+          <t>jc_gordon_</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>sophia.donofrio</t>
+          <t>casiepeng</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>misskeyonnaletrice</t>
+          <t>h__moneyyyyy</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>dilloncaswell</t>
+          <t>carson_n05</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>hayleeresnick</t>
+          <t>drew.matthews_</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>mucmuontutu.myanmartiktokstars</t>
+          <t>sjn_0619</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>arielleesummers</t>
+          <t>john.kelly3</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>arrishmarri</t>
+          <t>kartikch18</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ethan_mackay22</t>
+          <t>maxbolton23</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>harita.kondragunta</t>
+          <t>wizardfacelol</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>camerxn93</t>
+          <t>s4mn0rth</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>josiebug03</t>
+          <t>redjuslab</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>thejasminevarma</t>
+          <t>brooke_johnson4805</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>_tylergordon._</t>
+          <t>uhhh_ciara_</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>mom2brownings</t>
+          <t>gilliandoherty05</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>bristumbaugh</t>
+          <t>eloiseduggal</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>nate.collinss</t>
+          <t>z_frampton</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>aryan.shah05</t>
+          <t>austin_canuel</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>cweiss1975</t>
+          <t>emmaterese11</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>austin_canuel</t>
+          <t>_luke_skinner_</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>kostasaari</t>
+          <t>tjcasimano</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>bradysicotte</t>
+          <t>alexandraholmesr</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>the_andrea_lee</t>
+          <t>gcolley27</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>michael__conlon</t>
+          <t>leilasarkarzadeh</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ethnlk</t>
+          <t>ian.adcock.howeth</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,300 +3508,10 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ally.burkwall</t>
+          <t>max_mellick</t>
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>maya.agans</t>
-        </is>
-      </c>
-      <c r="B309" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>rosies_roseas</t>
-        </is>
-      </c>
-      <c r="B310" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>sophiajohnstonnn</t>
-        </is>
-      </c>
-      <c r="B311" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>dont.be.an.eddie.ot</t>
-        </is>
-      </c>
-      <c r="B312" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>taraguth</t>
-        </is>
-      </c>
-      <c r="B313" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>lilliangbryant</t>
-        </is>
-      </c>
-      <c r="B314" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>breebbrooks</t>
-        </is>
-      </c>
-      <c r="B315" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>aaronwumpini24_backup</t>
-        </is>
-      </c>
-      <c r="B316" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>_ashley.elizibeth_</t>
-        </is>
-      </c>
-      <c r="B317" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>amyfarrted</t>
-        </is>
-      </c>
-      <c r="B318" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>_tyler.smith_6865</t>
-        </is>
-      </c>
-      <c r="B319" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>alex.villa0</t>
-        </is>
-      </c>
-      <c r="B320" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>theholloway04</t>
-        </is>
-      </c>
-      <c r="B321" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>wolf.cwahl</t>
-        </is>
-      </c>
-      <c r="B322" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>rexcottone</t>
-        </is>
-      </c>
-      <c r="B323" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>ali_cow1</t>
-        </is>
-      </c>
-      <c r="B324" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>ward_line76</t>
-        </is>
-      </c>
-      <c r="B325" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>trinity.jenkins1</t>
-        </is>
-      </c>
-      <c r="B326" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>gabriellegonzzz</t>
-        </is>
-      </c>
-      <c r="B327" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>joshua_fetus</t>
-        </is>
-      </c>
-      <c r="B328" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>dkandel18</t>
-        </is>
-      </c>
-      <c r="B329" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>kayin.b_</t>
-        </is>
-      </c>
-      <c r="B330" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>slacker_dc</t>
-        </is>
-      </c>
-      <c r="B331" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>malaynacherbaka</t>
-        </is>
-      </c>
-      <c r="B332" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>ryan.jeronimus</t>
-        </is>
-      </c>
-      <c r="B333" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>nikhikhas</t>
-        </is>
-      </c>
-      <c r="B334" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>david_hill05</t>
-        </is>
-      </c>
-      <c r="B335" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>maxbrooks__</t>
-        </is>
-      </c>
-      <c r="B336" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>avaastaples</t>
-        </is>
-      </c>
-      <c r="B337" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/vt.roomme.xlsx
+++ b/Marketing/vt.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gupta_tanul</t>
+          <t>bethhlennon</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ali_cow1</t>
+          <t>_tylergordon._</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>_loganterry</t>
+          <t>madison.marshall_</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nahom_nm1</t>
+          <t>thebakarmos</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nate.s25</t>
+          <t>gabby.rie</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>the_andrea_lee</t>
+          <t>sarahgcrawford._</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>brianduck7</t>
+          <t>abdallah_alshami78</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mayukhii</t>
+          <t>fix.it.felix7</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>gabbo.carp</t>
+          <t>bellafsmiller</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>aaronwumpini24_backup</t>
+          <t>dburgoa.13</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>anwithasanivarapu</t>
+          <t>a_levy12</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dont.be.an.eddie.ot</t>
+          <t>krisa.xoxo</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>squashme23223</t>
+          <t>michaelshaban1110</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>_ashley.elizibeth_</t>
+          <t>jordan.wetz</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>austinselliss</t>
+          <t>marykaye17</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>fukktete</t>
+          <t>matthewkorbin</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>rayuthh</t>
+          <t>mzriagonz</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>jason.hodge78</t>
+          <t>emily.pinegar5</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>manavppatell</t>
+          <t>sophia.donofrio</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ryantravers24</t>
+          <t>savannahhmiless</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,1107 +648,1107 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>lilli.harding</t>
+          <t>21ndacutti</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>jac0b5269</t>
+          <t>j_tumas</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>estudiojuridicobasile</t>
+          <t>gobble_gobble103</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sam.shilly</t>
+          <t>quqwe_305</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>p.rooney25</t>
+          <t>devtanwar902</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dkandel18</t>
+          <t>ryleemotts</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ward_line76</t>
+          <t>ethan.b26</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>riaz_ahsann</t>
+          <t>ajnikson6</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>misskd4</t>
+          <t>maddieswanson23</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>kwolfe.05</t>
+          <t>_jaffacakee_</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>antt.roma_</t>
+          <t>brenna.egann</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>cullenmcc4</t>
+          <t>stephen24onnn</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>naomigedamuu</t>
+          <t>jocelyndrouin</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>abby_jeanw</t>
+          <t>maureen_m3</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>thartigan</t>
+          <t>muniipandey</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>shruthika.s.05</t>
+          <t>asarchese19</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>aliyahvbrown</t>
+          <t>lilli.harding</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sasha_sachinskiy</t>
+          <t>sean__smith10</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>meat_balls_slap</t>
+          <t>landonjnydegger</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>kostasaari</t>
+          <t>_aye.rose_</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>donnasateri</t>
+          <t>tyler_coco_</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>gavin.m.brown</t>
+          <t>jonathan.adms</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>_tyler.smith_6865</t>
+          <t>hannah.piercee</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>eavan.driscoll</t>
+          <t>lisacheck</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>lmbzjs</t>
+          <t>virgil_hobbs26</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>_aye.rose_</t>
+          <t>carson_n05</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>_marcuszachariah_</t>
+          <t>solilium.mili</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sofy.gonzalez_05</t>
+          <t>_jackzarb</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>_as651</t>
+          <t>annabellaracioppi</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ryan.jeronimus</t>
+          <t>maximos.griffiths</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>jalyn._white</t>
+          <t>shravan_s1005</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>colinok26</t>
+          <t>erinpolleyharris</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>lauren_mcclellan24</t>
+          <t>avacheck</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>timsiekierka</t>
+          <t>drew.matthews_</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>kayin.b_</t>
+          <t>tornyeliadamah</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>israt_tahosena</t>
+          <t>chandler_chaz3</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ethanvonnida</t>
+          <t>gracynr5</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>addiegkarluk</t>
+          <t>zsazsaferrell</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>pauliferetti</t>
+          <t>leah.tillman05</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kjinva</t>
+          <t>skylarrperryy</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>theholloway04</t>
+          <t>gibrilcolleyy</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>distressor7</t>
+          <t>lo413_</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ky1iezhou</t>
+          <t>john.kelly3</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>neo_jing</t>
+          <t>avamariaent</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sandmanpestcontrol</t>
+          <t>parkmanmill</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>gmucommitments</t>
+          <t>madisonmoraja</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>neil_vermin</t>
+          <t>samsmith4235</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0luwatoni.i</t>
+          <t>jimmy.mullarney</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>leo_._exe</t>
+          <t>mccurdy_max</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>arnavkumar47</t>
+          <t>aaronwumpini24_backup</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>archer_vermont23</t>
+          <t>brenna_bevins</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>evelyn_teske_</t>
+          <t>2drewb</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>parth_mittal21</t>
+          <t>tomoyoisumi_rukahonda_japuss10</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>febromfman</t>
+          <t>drewfrisch_</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>zaccharie.ouzilou</t>
+          <t>freshfrosh_</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>bradysicotte</t>
+          <t>trinity.jenkins1</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>gcashman_</t>
+          <t>sandybrag231</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>victoriavb1</t>
+          <t>emmacahaotu</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>owenhart247</t>
+          <t>siyi_0228</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>gwalker76</t>
+          <t>rak.end.u</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sakura_ash</t>
+          <t>jennaa.boltt</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>daksh_shandilya</t>
+          <t>jjakealexander</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>rosies_roseas</t>
+          <t>caleb_s_elias</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ha.rini_k</t>
+          <t>nnatrenee</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>atlasaurelius23</t>
+          <t>jenisita70</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sampruitt_maybe</t>
+          <t>tori_rose_novak</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>jonathan.adms</t>
+          <t>anish.suresh01</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>wilson_francis11</t>
+          <t>y_jordan._</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ana_lichtenstein</t>
+          <t>mom2brownings</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>chris_calderon_2</t>
+          <t>aryan.shah05</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>avamariaent</t>
+          <t>dmartin200517</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>taylormcgg</t>
+          <t>sam.w_0331</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>kbanes20</t>
+          <t>liz.webbert</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>sean.stu213</t>
+          <t>ckong13</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>kate_rosep1</t>
+          <t>marakiassefa</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>elizabethbfowler</t>
+          <t>alliehughes13</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>mary15am_aziz</t>
+          <t>_savannahbragg</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>brenna.egann</t>
+          <t>1344tommy_d</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>sarahhyoung23</t>
+          <t>chris5davis</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>joaquin.prera</t>
+          <t>wilson_francis11</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>nmcgill19</t>
+          <t>ahil.sarang</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>pre__yea</t>
+          <t>mack.l0</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>mack.l0</t>
+          <t>kwolfe.05</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>charannarra01</t>
+          <t>owenshumate1</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>_nataliapolo</t>
+          <t>ashley.nick7</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>sarmientorenee10</t>
+          <t>acconut_lola.20</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>305genie</t>
+          <t>gmucommitments</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>kennedy_trace05</t>
+          <t>connorhamburger</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>maddieswanson23</t>
+          <t>jayden338174</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>andre.keyser1</t>
+          <t>riaz_ahsann</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>emersonbeck3</t>
+          <t>mike_rod_34</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>allyson.lounsbury</t>
+          <t>kerihalko_</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>justah_bro_chillin</t>
+          <t>luke_shaowalker</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2drewb</t>
+          <t>rvdavidd</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>sophiajohnstonnn</t>
+          <t>donnasateri</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>bristumbaugh</t>
+          <t>saher_v7</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>cibelmenendezz</t>
+          <t>tl_gobell</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ethnlk</t>
+          <t>ben_scov</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>youngcheolchoe</t>
+          <t>chloe.ameli.a</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>hazeljdohse</t>
+          <t>sydney.scannell</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>_darassss_</t>
+          <t>turner.saunders.1</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>alex.azpu</t>
+          <t>ctg_.a</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>acconut_lola.20</t>
+          <t>wyliekd</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ceorr_0611</t>
+          <t>jason.hodge78</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>juliaeffenberger</t>
+          <t>jc_gordon_</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>wyatt_tinker57</t>
+          <t>pre__yea</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>anirudh.chinta</t>
+          <t>jacksonhuish1</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>raeganturnbach</t>
+          <t>cameron_haas17</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>bryan.smith04</t>
+          <t>camernlee</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>avamamienski</t>
+          <t>tmwebb16</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ethan.garlock</t>
+          <t>npbasic</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>elianammichael</t>
+          <t>cmcd.18</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>_keira_mcmurry_</t>
+          <t>mimikronisch</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>zach.runyan</t>
+          <t>quetonto</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>dylan.decambre</t>
+          <t>lexi_joan_taylor</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>goals4life11</t>
+          <t>haleygraygarrett</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>kennedyoldss</t>
+          <t>megan.kiddd</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>peyfarr</t>
+          <t>ryleecookee</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ryanburke.14</t>
+          <t>chu.adiele</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>jenrx</t>
+          <t>saylorbowdouris</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>maxbrooks__</t>
+          <t>jaylene.chute</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>zsazsaferrell</t>
+          <t>parth_mittal21</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>kb.sackey</t>
+          <t>elleegrovess</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>sophia.donofrio</t>
+          <t>meat_balls_slap</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>devtanwar902</t>
+          <t>co1inhaas</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>_samanthasherwood4</t>
+          <t>div.tennant</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>mariag.760</t>
+          <t>gigi_ziel</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>_anagraham_</t>
+          <t>gwalker76</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>quetonto</t>
+          <t>donaldm.05</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>dvmb.7</t>
+          <t>cooper.hatton_</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>kylieseckinger</t>
+          <t>jacob.bwhite</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>shlakyy</t>
+          <t>_paulhammer</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>sydney.scannell</t>
+          <t>emilyytuck12</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ethan_mackay22</t>
+          <t>julliie05</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>michael_thegolfer</t>
+          <t>kb.sackey</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>sanyasewani</t>
+          <t>w_slm_</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>apham_1</t>
+          <t>rosies_roseas</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>mahishamss</t>
+          <t>alexandraholmesr</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>daviddamkoehler</t>
+          <t>brettscalzo</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>brian_pariseau</t>
+          <t>elioth813</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>avaagarrison</t>
+          <t>sophia_stevens3</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>jeffrey._hubler</t>
+          <t>meenamani09</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>connorhamburger</t>
+          <t>lilliangbryant</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>halpern.lindsey</t>
+          <t>vt_greekcru</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>fix.it.felix7</t>
+          <t>henryfelix05</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>andrew_wulff_23</t>
+          <t>cweiss1975</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>mucmuontutu.myanmartiktokstars</t>
+          <t>squashme23223</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>owenshumate1</t>
+          <t>abby_.mack</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>brenna_bevins</t>
+          <t>kartikch18</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>jenisita70</t>
+          <t>frank_halloran</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ddavid.chen1</t>
+          <t>z_hoover27</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>vt_greekcru</t>
+          <t>gavin._.p</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>izzyb_s4</t>
+          <t>z_frampton</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>owencook50</t>
+          <t>jenna.gadd.22</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>lukederitis</t>
+          <t>chrismarie823</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>sanat.kas03</t>
+          <t>patrice_pintarelli</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>gigi_ziel</t>
+          <t>capritta5</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>liz.webbert</t>
+          <t>bkermel1</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>angela_tiju</t>
+          <t>_darassss_</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>anitaj_05</t>
+          <t>_as651</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>peyton.emmel</t>
+          <t>nicmuratore</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>virxjc</t>
+          <t>_ashley.elizibeth_</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>zachtorres__</t>
+          <t>mauri_jones67</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>arrishmarri</t>
+          <t>liamr_34</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>siyi_0228</t>
+          <t>kgoskuie</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>zennie.bby</t>
+          <t>samira_ibrahim05</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>jeansebastianv</t>
+          <t>leeceann</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>mirka_ribera</t>
+          <t>nick_24_05</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>cadyshenk</t>
+          <t>tyler.hordych</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>joshua_fetus</t>
+          <t>ema__allen</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>juliapallen72</t>
+          <t>madibv_</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>tomoyoisumi_rukahonda_japuss10</t>
+          <t>amber89dawn</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>amber89dawn</t>
+          <t>nat.kees05</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>leah.tillman05</t>
+          <t>emilypavlitsa_</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>angeline.saari</t>
+          <t>rigdon.sean</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>all.isonmspam</t>
+          <t>stephstrean</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>jack.vicari0</t>
+          <t>rebecca_grace2003</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>_jason.law</t>
+          <t>lizakelley29</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>gregnel11</t>
+          <t>jdcgoals4life</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>katie_creswick</t>
+          <t>frkuhns</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>leyaarmstrong</t>
+          <t>varshadeviah</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>nate.collinss</t>
+          <t>gracieacooke</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>maz_sheephands</t>
+          <t>oliviaa.brownnn</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>maureen_m3</t>
+          <t>gretchenkoss</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>misskeyonnaletrice</t>
+          <t>brianduck7</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>eli_rowland18</t>
+          <t>wbc002</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>turner.saunders.1</t>
+          <t>robferguson14</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>sithpotato</t>
+          <t>nate.collinss</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>patrick_r05</t>
+          <t>gabbo.carp</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>nevin.odowd</t>
+          <t>surya_kotera</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>kimgfalwell</t>
+          <t>joaquin.prera</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>hudson_rothschild</t>
+          <t>maz_sheephands</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>adriannaangell</t>
+          <t>estudiojuridicobasile</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>skylarrperryy</t>
+          <t>laneybrisson</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>thejasminevarma</t>
+          <t>m.a.k.a.i.l.a</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>marissa._bentley</t>
+          <t>adriannaangell</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>dawitsheckler</t>
+          <t>sophia_serg21</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>monaa.li_sa</t>
+          <t>kineab.melkamu</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>nathan_wyatt_16</t>
+          <t>devan_ganesh</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>hhberger05</t>
+          <t>chris_calderon_2</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>sam.w_0331</t>
+          <t>harp_man_</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>_kyle_z_</t>
+          <t>hokietect</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>emoryftaylor</t>
+          <t>livmidgette</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>dilloncaswell</t>
+          <t>_shriya.agrawal_</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>abby_lessy</t>
+          <t>leyaarmstrong</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>knox_dendy</t>
+          <t>phil_togno</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>tommy_ayers21</t>
+          <t>izzyvalant</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>bree.112440_</t>
+          <t>pauliferetti</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>griffinthehatcher</t>
+          <t>joe.r.cooper</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>laneydennisss</t>
+          <t>eviemardigian</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>chloe.ameli.a</t>
+          <t>joe.mason08</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>maresa.ak</t>
+          <t>william_tinnemeyer</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>jmdyer16</t>
+          <t>sammcooperrr</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>jahleeljackson</t>
+          <t>leannevillante</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>rigdon.sean</t>
+          <t>_jacksonwilkins_</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>david_hill05</t>
+          <t>gregnel11</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>mom2brownings</t>
+          <t>kimmiegbond</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>nikhikhas</t>
+          <t>melissa.green1</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>_capo04_</t>
+          <t>graham.lefevre_</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>mucmuontutu_myanmartiktokstars</t>
+          <t>matthew_1648</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>zidow_keira</t>
+          <t>ceorr_0611</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>mike_rod_34</t>
+          <t>k_hall9904</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>sawyer.cummings</t>
+          <t>allikassir</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>chloekortt</t>
+          <t>jamesfowlerva</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>larabakerrr</t>
+          <t>_brysen_k</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>10brettfarm</t>
+          <t>ryansh1m</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t.hall52</t>
+          <t>lewissnead</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>emma.geilmann</t>
+          <t>amber_2585</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>jimmy.mullarney</t>
+          <t>avabirchfield</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>melwitit</t>
+          <t>sanat.kas03</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>trinity.jenkins1</t>
+          <t>akshaj_24</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>michael__conlon</t>
+          <t>mads.watt</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>a_levy12</t>
+          <t>lrlchrls</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>darrenchi_</t>
+          <t>0luwatoni.i</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>brittany.linares</t>
+          <t>lindalisowski7401</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>wh302035</t>
+          <t>neija.mh</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>mimikronisch</t>
+          <t>emoryftaylor</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>w_slm_</t>
+          <t>katharine.miller.71</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>elioth813</t>
+          <t>beckhoffman9722</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>adam.oyster</t>
+          <t>dilloncaswell</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>eliseemarsh</t>
+          <t>caseykdingman</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ellieeskicioglu</t>
+          <t>kimgfalwell</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>jenna.gadd.22</t>
+          <t>theogunkoh</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>caelkinney</t>
+          <t>aayush.narang10</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ishani.ramesh</t>
+          <t>jonathan.gustavus</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>kirap783</t>
+          <t>hikk_omori</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>k_hall9904</t>
+          <t>ishauppalli</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>rebecca_grace2003</t>
+          <t>laneydennisss</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>marykaye17</t>
+          <t>icey_queen3</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>therealariyannaa</t>
+          <t>colinok26</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>tyler.hordych</t>
+          <t>samik3d</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>luke.murtaugh44</t>
+          <t>ali_cow1</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>jayden338174</t>
+          <t>harrison.tracyy</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>_tylergordon._</t>
+          <t>max_mellick</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>dhruv.sharma0505</t>
+          <t>sarah_12arts</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>caseybtinker</t>
+          <t>roberthall21</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>corinasawyerss</t>
+          <t>pearce.mck</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>trisha0307</t>
+          <t>ha.rini_k</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>oliviakleftwich</t>
+          <t>emersonbeck3</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>made_x_us</t>
+          <t>jayy.shotta</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>julietpasierb</t>
+          <t>kar____.ina</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>jc_gordon_</t>
+          <t>adam.oyster</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>casiepeng</t>
+          <t>michael__conlon</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>h__moneyyyyy</t>
+          <t>mucmuontutu_myanmartiktokstars</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>carson_n05</t>
+          <t>annalc_777</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>drew.matthews_</t>
+          <t>nizooooo123</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>sjn_0619</t>
+          <t>zoeevanssssss</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>john.kelly3</t>
+          <t>mariag.760</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>kartikch18</t>
+          <t>ohana.c17</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>maxbolton23</t>
+          <t>olliepeake_</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>wizardfacelol</t>
+          <t>wyatt_tinker57</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>s4mn0rth</t>
+          <t>kate.tillett</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>redjuslab</t>
+          <t>ethanvonnida</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>brooke_johnson4805</t>
+          <t>_loganterry</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>uhhh_ciara_</t>
+          <t>fallon.hurley</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>gilliandoherty05</t>
+          <t>claudia.frascaa</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>eloiseduggal</t>
+          <t>megan.mcnugget</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>z_frampton</t>
+          <t>fiaremondino</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>austin_canuel</t>
+          <t>misskeyonnaletrice</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>emmaterese11</t>
+          <t>juliazalenskii</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>_luke_skinner_</t>
+          <t>nmouniira</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>tjcasimano</t>
+          <t>_car0linelee</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>alexandraholmesr</t>
+          <t>dredre347</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>gcolley27</t>
+          <t>angeline.saari</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>leilasarkarzadeh</t>
+          <t>kevin.y4ng</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ian.adcock.howeth</t>
+          <t>sarahbehecker</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,10 +3508,500 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>max_mellick</t>
+          <t>kennedy_trace05</t>
         </is>
       </c>
       <c r="B308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>delaney.spradlin</t>
+        </is>
+      </c>
+      <c r="B309" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>kane.g69</t>
+        </is>
+      </c>
+      <c r="B310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>dominic.kittle</t>
+        </is>
+      </c>
+      <c r="B311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>mikiya15433</t>
+        </is>
+      </c>
+      <c r="B312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>timsiekierka</t>
+        </is>
+      </c>
+      <c r="B313" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>emmapotter1202</t>
+        </is>
+      </c>
+      <c r="B314" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>hannahball00</t>
+        </is>
+      </c>
+      <c r="B315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>iiamerica.b</t>
+        </is>
+      </c>
+      <c r="B316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>atlasaurelius23</t>
+        </is>
+      </c>
+      <c r="B317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>febromfman</t>
+        </is>
+      </c>
+      <c r="B318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>kjinva</t>
+        </is>
+      </c>
+      <c r="B319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>elizaburcher</t>
+        </is>
+      </c>
+      <c r="B320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>nevin.odowd</t>
+        </is>
+      </c>
+      <c r="B321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>kennedyoldss</t>
+        </is>
+      </c>
+      <c r="B322" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>sydleemoore</t>
+        </is>
+      </c>
+      <c r="B323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>laur.car</t>
+        </is>
+      </c>
+      <c r="B324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>dvmb.7</t>
+        </is>
+      </c>
+      <c r="B325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>carolinemmcinnish</t>
+        </is>
+      </c>
+      <c r="B326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>seanbiega05</t>
+        </is>
+      </c>
+      <c r="B327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>dalma_k1224</t>
+        </is>
+      </c>
+      <c r="B328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>david_hill05</t>
+        </is>
+      </c>
+      <c r="B329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>avaagarrison</t>
+        </is>
+      </c>
+      <c r="B330" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>apham_1</t>
+        </is>
+      </c>
+      <c r="B331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>elona_michael</t>
+        </is>
+      </c>
+      <c r="B332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>aaronleinberger</t>
+        </is>
+      </c>
+      <c r="B333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>carsonmoor3</t>
+        </is>
+      </c>
+      <c r="B334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>hannah.smouse</t>
+        </is>
+      </c>
+      <c r="B335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>sxmeria</t>
+        </is>
+      </c>
+      <c r="B336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>arrishmarri</t>
+        </is>
+      </c>
+      <c r="B337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>alvagutes</t>
+        </is>
+      </c>
+      <c r="B338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>jacksonkemperr</t>
+        </is>
+      </c>
+      <c r="B339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>sammarkow</t>
+        </is>
+      </c>
+      <c r="B340" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>flynn_riderrrrrr</t>
+        </is>
+      </c>
+      <c r="B341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>nir0k</t>
+        </is>
+      </c>
+      <c r="B342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>benemanuel_o</t>
+        </is>
+      </c>
+      <c r="B343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>all.isonmspam</t>
+        </is>
+      </c>
+      <c r="B344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>misskd4</t>
+        </is>
+      </c>
+      <c r="B345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>ragu.chawla</t>
+        </is>
+      </c>
+      <c r="B346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>kayin.b_</t>
+        </is>
+      </c>
+      <c r="B347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>samantha.oteri</t>
+        </is>
+      </c>
+      <c r="B348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>o_roach04</t>
+        </is>
+      </c>
+      <c r="B349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>bokyoungkim0211</t>
+        </is>
+      </c>
+      <c r="B350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>lauren_mcclellan24</t>
+        </is>
+      </c>
+      <c r="B351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>angela_tiju</t>
+        </is>
+      </c>
+      <c r="B352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>csavadove</t>
+        </is>
+      </c>
+      <c r="B353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>tyejaedon</t>
+        </is>
+      </c>
+      <c r="B354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>mirka_ribera</t>
+        </is>
+      </c>
+      <c r="B355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>mucmuontutu.myanmartiktokstars</t>
+        </is>
+      </c>
+      <c r="B356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>sarayu_p_</t>
+        </is>
+      </c>
+      <c r="B357" t="b">
         <v>0</v>
       </c>
     </row>
